--- a/企画書_仕様書.xlsx
+++ b/企画書_仕様書.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\ゲーム制作Ⅲ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\ゲーム制作Ⅲ\15Nomoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6ECDB3A4-AD54-4815-B4DC-FCDE39C8A48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC0F497-2CAF-448C-B805-602391568D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1095" yWindow="1005" windowWidth="20115" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
+    <workbookView xWindow="9285" yWindow="825" windowWidth="13050" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -58,21 +58,41 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エリア内の敵を倒し、クリア時間を競うゲーム</t>
+    <t>エリア内の敵をすべて倒し、クリア時間とスコアを競うゲーム</t>
     <rPh sb="3" eb="4">
       <t>ナイ</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>テキ</t>
     </rPh>
-    <rPh sb="7" eb="8">
+    <rPh sb="10" eb="11">
       <t>タオ</t>
     </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="16" eb="18">
       <t>ジカン</t>
     </rPh>
-    <rPh sb="16" eb="17">
+    <rPh sb="23" eb="24">
       <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いかに早く敵を全滅させられるかがゲームのカギ</t>
+    <rPh sb="3" eb="4">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム操作</t>
+    <rPh sb="3" eb="5">
+      <t>ソウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -140,14 +160,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25267515-EF44-494E-8195-F0E4FC361F2B}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
@@ -472,31 +492,31 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="1"/>
       <c r="C4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -511,7 +531,15 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
         <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/企画書_仕様書.xlsx
+++ b/企画書_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\ゲーム制作Ⅲ\15Nomoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC0F497-2CAF-448C-B805-602391568D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17CA82-BFE2-4874-B953-5776BC1AA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9285" yWindow="825" windowWidth="13050" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
+    <workbookView xWindow="9510" yWindow="1305" windowWidth="17055" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -58,25 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エリア内の敵をすべて倒し、クリア時間とスコアを競うゲーム</t>
-    <rPh sb="3" eb="4">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>テキ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キソ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>いかに早く敵を全滅させられるかがゲームのカギ</t>
     <rPh sb="3" eb="4">
       <t>ハヤ</t>
@@ -93,6 +74,514 @@
     <t>ゲーム操作</t>
     <rPh sb="3" eb="5">
       <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前移動</t>
+    <rPh sb="0" eb="3">
+      <t>マエイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左移動</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>後ろ移動</t>
+    <rPh sb="0" eb="1">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右移動</t>
+    <rPh sb="0" eb="3">
+      <t>ミギイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>ジャクコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強攻撃</t>
+    <rPh sb="0" eb="3">
+      <t>キョウコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>K</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム時</t>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー時</t>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Escape</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>決定</t>
+    <rPh sb="0" eb="2">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カーソル移動</t>
+  </si>
+  <si>
+    <t>カーソル移動</t>
+    <rPh sb="4" eb="6">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Space</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仕様書</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウショ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>前後ろ、左右に移動する(W:前進 A:左移動 S:後退 D:右移動)</t>
+    <rPh sb="0" eb="2">
+      <t>マエウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゼンシン</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>ヒダリイドウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウタイ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>ミギイドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弱攻撃(出は早いが威力が弱い)</t>
+    <rPh sb="0" eb="3">
+      <t>ジャクコウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イリョク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強攻撃(溜めがあるが威力が高い)</t>
+    <rPh sb="0" eb="3">
+      <t>キョウコウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イリョク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回避(回避は無敵時間があるが、連発はできない)</t>
+    <rPh sb="0" eb="2">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイヒ</t>
+    </rPh>
+    <rPh sb="6" eb="10">
+      <t>ムテキジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンパツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の攻撃を受けるとHPが減る</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが0になるとゲームオーバー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃が届く距離まで近づくと攻撃する</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの攻撃が当たるとHPが減り、ひるむ</t>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが近くに来ると捕捉し、近づいてくる</t>
+    <rPh sb="6" eb="7">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガード(敵の素早い攻撃も防げる。ただし、防ぎきれずダメージは少し貫通する)</t>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>スバヤ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フセ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPが0になると撃破</t>
+    <rPh sb="8" eb="10">
+      <t>ゲキハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒すごとにコンボがつながり、コンボ数に応じてスコアが上がる</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵を倒していくとコンボがつながる。ダメージを受けるか、一定時間すると</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="27" eb="31">
+      <t>イッテイジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コンボが途切れる</t>
+    <rPh sb="4" eb="6">
+      <t>トギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高低差がある</t>
+    <rPh sb="0" eb="3">
+      <t>コウテイサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ての敵を倒すことでゲームクリア</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リザルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クリア時間とスコアの表示</t>
+    <rPh sb="3" eb="5">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スコアの高さでS,A,B,C,Dの五段階の評価が出る</t>
+    <rPh sb="4" eb="5">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ゴダンカイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウカ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エリア内の敵をすべて倒し、スコアを競うゲーム</t>
+    <rPh sb="3" eb="4">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キソ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>残りHPとクリア時間もスコアに加算</t>
+    <rPh sb="0" eb="1">
+      <t>ノコ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択画面の表示</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メニュー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージの最初からやり直す機能</t>
+    <rPh sb="5" eb="7">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトルに戻る機能</t>
+    <rPh sb="5" eb="6">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>作業計画</t>
+    <rPh sb="0" eb="4">
+      <t>サギョウケイカク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -134,12 +623,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -156,7 +651,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -168,6 +663,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -483,15 +981,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25267515-EF44-494E-8195-F0E4FC361F2B}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -499,13 +997,13 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -514,32 +1012,135 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>7</v>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+      <c r="H18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -554,12 +1155,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{668B1D98-4172-40C1-A38A-E7E1EAA6BA78}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S34"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="10" max="19" width="4.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>2</v>
+      </c>
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2">
+        <v>4</v>
+      </c>
+      <c r="N2">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <v>6</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>8</v>
+      </c>
+      <c r="R2">
+        <v>9</v>
+      </c>
+      <c r="S2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="4"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="4"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B21" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B33" t="s">
+        <v>64</v>
+      </c>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/企画書_仕様書.xlsx
+++ b/企画書_仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\ゲーム制作Ⅲ\15Nomoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C17CA82-BFE2-4874-B953-5776BC1AA69C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEA3F43-CB1A-4C7A-BB9A-927EB716C399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="1305" windowWidth="17055" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
+    <workbookView xWindow="3135" yWindow="3705" windowWidth="17055" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -583,6 +583,17 @@
     <rPh sb="0" eb="4">
       <t>サギョウケイカク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tab</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -658,14 +669,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -984,24 +995,24 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
@@ -1082,13 +1093,13 @@
         <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D17" t="s">
         <v>11</v>
       </c>
@@ -1101,8 +1112,14 @@
       <c r="H17" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="J17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D18" t="s">
         <v>12</v>
       </c>
@@ -1116,7 +1133,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>22</v>
       </c>
@@ -1127,7 +1144,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
         <v>24</v>
       </c>
@@ -1135,7 +1152,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
         <v>25</v>
       </c>
@@ -1158,7 +1175,7 @@
   <dimension ref="A1:S34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1215,61 +1232,61 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="K5" s="4"/>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="2"/>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="2"/>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B9" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="4"/>
+      <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="4"/>
+      <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
         <v>43</v>
       </c>
-      <c r="N11" s="4"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="O12" s="4"/>
+      <c r="O12" s="2"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="4"/>
+      <c r="O13" s="2"/>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -1280,27 +1297,27 @@
       <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>44</v>
       </c>
-      <c r="N16" s="4"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>45</v>
       </c>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>48</v>
       </c>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
@@ -1311,16 +1328,16 @@
       <c r="B21" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>55</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
@@ -1331,22 +1348,22 @@
       <c r="B25" t="s">
         <v>57</v>
       </c>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="P27" s="4"/>
-      <c r="Q27" s="4"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
@@ -1357,8 +1374,8 @@
       <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
@@ -1369,15 +1386,15 @@
       <c r="B33" t="s">
         <v>64</v>
       </c>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/企画書_仕様書.xlsx
+++ b/企画書_仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\ゲーム制作Ⅲ\15Nomoto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEA3F43-CB1A-4C7A-BB9A-927EB716C399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95178CE5-E8A2-4E53-9F0D-0B7A2CB3F063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="3705" windowWidth="17055" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
+    <workbookView xWindow="5715" yWindow="315" windowWidth="17055" windowHeight="12405" xr2:uid="{58ACE02B-7BB5-4227-B93B-25BDD0BBED98}"/>
   </bookViews>
   <sheets>
     <sheet name="企画書" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>企画書</t>
     <rPh sb="0" eb="3">
@@ -448,10 +448,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Shift</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ジャンプ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -594,6 +590,66 @@
   </si>
   <si>
     <t>Tab</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ回転左</t>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ回転上</t>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ回転下</t>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カメラ回転右</t>
+    <rPh sb="3" eb="5">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ミギ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -992,10 +1048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25267515-EF44-494E-8195-F0E4FC361F2B}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1035,7 +1091,7 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -1076,7 +1132,7 @@
         <v>32</v>
       </c>
       <c r="K15" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1093,7 +1149,7 @@
         <v>18</v>
       </c>
       <c r="J16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K16" t="s">
         <v>20</v>
@@ -1116,7 +1172,7 @@
         <v>26</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
@@ -1127,36 +1183,68 @@
         <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B20" t="s">
-        <v>22</v>
-      </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D21" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E21" t="s">
-        <v>28</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
       <c r="D22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D23" t="s">
+        <v>72</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="D27" t="s">
         <v>25</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E27" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1188,7 +1276,7 @@
         <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.4">
@@ -1266,7 +1354,7 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M10" s="2"/>
     </row>
@@ -1326,7 +1414,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -1334,64 +1422,64 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
     </row>
     <row r="34" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
